--- a/tut05/output/0501ME19.xlsx
+++ b/tut05/output/0501ME19.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.408163265306122</v>
+        <v>8.41</v>
       </c>
       <c r="C6" t="n">
-        <v>7.954545454545454</v>
+        <v>7.95</v>
       </c>
       <c r="D6" t="n">
-        <v>8.468085106382979</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.408163265306122</v>
+        <v>8.41</v>
       </c>
       <c r="F6" t="n">
-        <v>8.956521739130435</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>9.043478260869565</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>8.9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.408163265306122</v>
+        <v>8.41</v>
       </c>
       <c r="C8" t="n">
-        <v>8.193548387096774</v>
+        <v>8.19</v>
       </c>
       <c r="D8" t="n">
-        <v>8.285714285714286</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.317460317460318</v>
+        <v>8.32</v>
       </c>
       <c r="F8" t="n">
-        <v>8.442553191489361</v>
+        <v>8.44</v>
       </c>
       <c r="G8" t="n">
-        <v>8.540925266903914</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.585669781931465</v>
+        <v>8.59</v>
       </c>
       <c r="I8" t="n">
-        <v>8.614958448753463</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
   </sheetData>
